--- a/route/timepoints/timepoints_3.xlsx
+++ b/route/timepoints/timepoints_3.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="59">
   <si>
     <t>Timepoints for Driver Position 3</t>
   </si>
   <si>
-    <t>Starting Location: 100a Madigan Hospital</t>
+    <t>Starting Location: 480a Warrior Zone</t>
   </si>
   <si>
     <t>Stop ID</t>
@@ -34,241 +34,145 @@
     <t>Departure</t>
   </si>
   <si>
-    <t>315a</t>
-  </si>
-  <si>
-    <t>Joint Base Headquarters</t>
-  </si>
-  <si>
-    <t>to Madigan</t>
-  </si>
-  <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>300b</t>
+    <t>300c</t>
   </si>
   <si>
     <t>Post Exchange</t>
   </si>
   <si>
-    <t>07:10:00</t>
-  </si>
-  <si>
-    <t>100a</t>
-  </si>
-  <si>
-    <t>Madigan Hospital</t>
-  </si>
-  <si>
-    <t>to Lakewood</t>
-  </si>
-  <si>
-    <t>07:20:00</t>
-  </si>
-  <si>
-    <t>801a</t>
-  </si>
-  <si>
-    <t>512 Park &amp; Ride</t>
-  </si>
-  <si>
-    <t>07:40:00</t>
-  </si>
-  <si>
-    <t>to Joint Base Headquarters</t>
-  </si>
-  <si>
-    <t>07:50:00</t>
-  </si>
-  <si>
-    <t>780a</t>
-  </si>
-  <si>
-    <t>Passenger Terminal</t>
-  </si>
-  <si>
-    <t>07:51:20</t>
-  </si>
-  <si>
-    <t>300a</t>
-  </si>
-  <si>
-    <t>08:00:00</t>
+    <t>to Army Airfield Loop</t>
   </si>
   <si>
     <t>08:10:00</t>
   </si>
   <si>
-    <t>08:20:00</t>
+    <t>300d</t>
+  </si>
+  <si>
+    <t>to Warrior Zone</t>
   </si>
   <si>
     <t>08:30:00</t>
   </si>
   <si>
-    <t>to McChord Field</t>
-  </si>
-  <si>
-    <t>08:40:00</t>
+    <t>480a</t>
+  </si>
+  <si>
+    <t>Warrior Zone</t>
+  </si>
+  <si>
+    <t>to Post Exchange</t>
+  </si>
+  <si>
+    <t>08:38:00</t>
   </si>
   <si>
     <t>08:50:00</t>
   </si>
   <si>
-    <t>08:51:20</t>
-  </si>
-  <si>
     <t>09:10:00</t>
   </si>
   <si>
-    <t>09:11:20</t>
-  </si>
-  <si>
-    <t>09:20:00</t>
+    <t>09:18:00</t>
   </si>
   <si>
     <t>09:30:00</t>
   </si>
   <si>
-    <t>09:40:00</t>
-  </si>
-  <si>
     <t>09:50:00</t>
   </si>
   <si>
-    <t>10:00:00</t>
+    <t>09:58:00</t>
   </si>
   <si>
     <t>10:10:00</t>
   </si>
   <si>
-    <t>10:11:20</t>
-  </si>
-  <si>
     <t>10:30:00</t>
   </si>
   <si>
-    <t>10:31:20</t>
-  </si>
-  <si>
-    <t>10:40:00</t>
+    <t>10:38:00</t>
   </si>
   <si>
     <t>10:50:00</t>
   </si>
   <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
     <t>11:10:00</t>
   </si>
   <si>
-    <t>11:20:00</t>
+    <t>11:18:00</t>
   </si>
   <si>
     <t>11:30:00</t>
   </si>
   <si>
-    <t>11:31:20</t>
-  </si>
-  <si>
     <t>11:50:00</t>
   </si>
   <si>
-    <t>11:51:20</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
+    <t>11:58:00</t>
   </si>
   <si>
     <t>12:10:00</t>
   </si>
   <si>
-    <t>12:20:00</t>
-  </si>
-  <si>
     <t>12:30:00</t>
   </si>
   <si>
-    <t>12:40:00</t>
+    <t>12:38:00</t>
   </si>
   <si>
     <t>12:50:00</t>
   </si>
   <si>
-    <t>12:51:20</t>
-  </si>
-  <si>
     <t>13:10:00</t>
   </si>
   <si>
-    <t>13:11:20</t>
-  </si>
-  <si>
-    <t>13:20:00</t>
+    <t>13:18:00</t>
   </si>
   <si>
     <t>13:30:00</t>
   </si>
   <si>
-    <t>13:40:00</t>
-  </si>
-  <si>
     <t>13:50:00</t>
   </si>
   <si>
-    <t>14:00:00</t>
+    <t>13:58:00</t>
   </si>
   <si>
     <t>14:10:00</t>
   </si>
   <si>
-    <t>14:11:20</t>
-  </si>
-  <si>
     <t>14:30:00</t>
   </si>
   <si>
-    <t>14:31:20</t>
-  </si>
-  <si>
-    <t>14:40:00</t>
+    <t>14:38:00</t>
   </si>
   <si>
     <t>14:50:00</t>
   </si>
   <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
     <t>15:10:00</t>
   </si>
   <si>
-    <t>15:20:00</t>
+    <t>15:18:00</t>
   </si>
   <si>
     <t>15:30:00</t>
   </si>
   <si>
-    <t>15:31:20</t>
-  </si>
-  <si>
     <t>15:50:00</t>
   </si>
   <si>
-    <t>16:00:00</t>
+    <t>15:58:00</t>
   </si>
   <si>
     <t>16:10:00</t>
   </si>
   <si>
-    <t>16:20:00</t>
-  </si>
-  <si>
     <t>16:30:00</t>
   </si>
   <si>
-    <t>16:40:00</t>
+    <t>16:38:00</t>
   </si>
   <si>
     <t>16:50:00</t>
@@ -277,19 +181,16 @@
     <t>17:10:00</t>
   </si>
   <si>
-    <t>17:20:00</t>
+    <t>17:18:00</t>
   </si>
   <si>
     <t>17:30:00</t>
   </si>
   <si>
-    <t>17:40:00</t>
-  </si>
-  <si>
     <t>17:50:00</t>
   </si>
   <si>
-    <t>18:00:00</t>
+    <t>17:58:00</t>
   </si>
 </sst>
 </file>
@@ -666,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,114 +625,114 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -839,41 +740,41 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -884,24 +785,24 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -912,66 +813,66 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -985,21 +886,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1007,69 +908,69 @@
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1080,24 +981,24 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1108,38 +1009,38 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
         <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1153,77 +1054,77 @@
         <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
         <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
         <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1231,41 +1132,41 @@
         <v>10</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1276,52 +1177,52 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1332,38 +1233,38 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1377,119 +1278,119 @@
         <v>8</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1500,178 +1401,178 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
         <v>25</v>
-      </c>
-      <c r="B62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1679,41 +1580,41 @@
         <v>10</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1724,24 +1625,24 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1752,94 +1653,94 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1847,83 +1748,83 @@
         <v>10</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1937,7 +1838,7 @@
         <v>15</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1948,52 +1849,52 @@
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2007,63 +1908,63 @@
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2071,13 +1972,1791 @@
         <v>10</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>91</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" t="s">
+        <v>15</v>
+      </c>
+      <c r="D226" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/route/timepoints/timepoints_3.xlsx
+++ b/route/timepoints/timepoints_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="59">
   <si>
     <t>Timepoints for Driver Position 3</t>
   </si>
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,16 +667,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -723,30 +723,30 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -779,44 +779,44 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -835,394 +835,394 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1236,49 +1236,49 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1306,35 +1306,35 @@
         <v>8</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1348,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1362,7 +1362,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1376,21 +1376,21 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1404,7 +1404,7 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1418,7 +1418,7 @@
         <v>15</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1432,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1446,7 +1446,7 @@
         <v>15</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1474,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1488,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1502,21 +1502,21 @@
         <v>8</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1530,7 +1530,7 @@
         <v>11</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1544,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1558,35 +1558,35 @@
         <v>11</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1600,7 +1600,7 @@
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1614,49 +1614,49 @@
         <v>15</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1670,399 +1670,399 @@
         <v>8</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2076,49 +2076,49 @@
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2132,7 +2132,7 @@
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2146,35 +2146,35 @@
         <v>8</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2188,7 +2188,7 @@
         <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2202,7 +2202,7 @@
         <v>11</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2216,21 +2216,21 @@
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2244,7 +2244,7 @@
         <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2258,7 +2258,7 @@
         <v>15</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2272,7 +2272,7 @@
         <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2286,7 +2286,7 @@
         <v>15</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2300,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2314,7 +2314,7 @@
         <v>8</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2328,7 +2328,7 @@
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2342,21 +2342,21 @@
         <v>8</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2370,7 +2370,7 @@
         <v>11</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2384,7 +2384,7 @@
         <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2398,35 +2398,35 @@
         <v>11</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2440,7 +2440,7 @@
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2454,49 +2454,49 @@
         <v>15</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2510,399 +2510,399 @@
         <v>8</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D164" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2916,49 +2916,49 @@
         <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2972,7 +2972,7 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2986,35 +2986,35 @@
         <v>8</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>11</v>
       </c>
       <c r="D176" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3056,21 +3056,21 @@
         <v>11</v>
       </c>
       <c r="D178" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>15</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>15</v>
       </c>
       <c r="D182" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3126,636 +3126,6 @@
         <v>15</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
-        <v>6</v>
-      </c>
-      <c r="B184" t="s">
-        <v>7</v>
-      </c>
-      <c r="C184" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
-        <v>6</v>
-      </c>
-      <c r="B186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C186" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>6</v>
-      </c>
-      <c r="B188" t="s">
-        <v>7</v>
-      </c>
-      <c r="C188" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
-        <v>10</v>
-      </c>
-      <c r="B190" t="s">
-        <v>7</v>
-      </c>
-      <c r="C190" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
-        <v>10</v>
-      </c>
-      <c r="B192" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" t="s">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
-        <v>13</v>
-      </c>
-      <c r="B194" t="s">
-        <v>14</v>
-      </c>
-      <c r="C194" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
-        <v>13</v>
-      </c>
-      <c r="B196" t="s">
-        <v>14</v>
-      </c>
-      <c r="C196" t="s">
-        <v>15</v>
-      </c>
-      <c r="D196" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>13</v>
-      </c>
-      <c r="B198" t="s">
-        <v>14</v>
-      </c>
-      <c r="C198" t="s">
-        <v>15</v>
-      </c>
-      <c r="D198" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
-        <v>6</v>
-      </c>
-      <c r="B202" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
-        <v>10</v>
-      </c>
-      <c r="B204" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" t="s">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
-        <v>10</v>
-      </c>
-      <c r="B206" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>10</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" t="s">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" t="s">
-        <v>13</v>
-      </c>
-      <c r="B210" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" t="s">
-        <v>15</v>
-      </c>
-      <c r="D210" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" t="s">
-        <v>13</v>
-      </c>
-      <c r="B212" t="s">
-        <v>14</v>
-      </c>
-      <c r="C212" t="s">
-        <v>15</v>
-      </c>
-      <c r="D212" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
-        <v>10</v>
-      </c>
-      <c r="B220" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" t="s">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
-        <v>10</v>
-      </c>
-      <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" t="s">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
-        <v>13</v>
-      </c>
-      <c r="B224" t="s">
-        <v>14</v>
-      </c>
-      <c r="C224" t="s">
-        <v>15</v>
-      </c>
-      <c r="D224" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
-        <v>13</v>
-      </c>
-      <c r="B226" t="s">
-        <v>14</v>
-      </c>
-      <c r="C226" t="s">
-        <v>15</v>
-      </c>
-      <c r="D226" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
-        <v>13</v>
-      </c>
-      <c r="B228" t="s">
-        <v>14</v>
-      </c>
-      <c r="C228" t="s">
-        <v>15</v>
-      </c>
-      <c r="D228" t="s">
         <v>58</v>
       </c>
     </row>

--- a/route/timepoints/timepoints_3.xlsx
+++ b/route/timepoints/timepoints_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="61">
   <si>
     <t>Timepoints for Driver Position 3</t>
   </si>
@@ -34,34 +34,40 @@
     <t>Departure</t>
   </si>
   <si>
+    <t>300d</t>
+  </si>
+  <si>
+    <t>Post Exchange</t>
+  </si>
+  <si>
+    <t>to Warrior Zone</t>
+  </si>
+  <si>
+    <t>07:50:00</t>
+  </si>
+  <si>
+    <t>480a</t>
+  </si>
+  <si>
+    <t>Warrior Zone</t>
+  </si>
+  <si>
+    <t>to Post Exchange</t>
+  </si>
+  <si>
+    <t>07:58:00</t>
+  </si>
+  <si>
     <t>300c</t>
   </si>
   <si>
-    <t>Post Exchange</t>
-  </si>
-  <si>
     <t>to Army Airfield Loop</t>
   </si>
   <si>
     <t>08:10:00</t>
   </si>
   <si>
-    <t>300d</t>
-  </si>
-  <si>
-    <t>to Warrior Zone</t>
-  </si>
-  <si>
     <t>08:30:00</t>
-  </si>
-  <si>
-    <t>480a</t>
-  </si>
-  <si>
-    <t>Warrior Zone</t>
-  </si>
-  <si>
-    <t>to Post Exchange</t>
   </si>
   <si>
     <t>08:38:00</t>
@@ -567,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,13 +676,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -684,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -698,13 +704,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -712,21 +718,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -737,10 +743,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -751,10 +757,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -765,10 +771,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>15</v>
@@ -838,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -852,10 +858,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
@@ -866,10 +872,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -880,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
@@ -891,10 +897,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -905,10 +911,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>15</v>
@@ -919,10 +925,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -933,10 +939,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>15</v>
@@ -1006,10 +1012,10 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -1020,10 +1026,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>21</v>
@@ -1034,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -1048,10 +1054,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>21</v>
@@ -1059,10 +1065,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
@@ -1073,10 +1079,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>15</v>
@@ -1087,10 +1093,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
@@ -1101,10 +1107,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>15</v>
@@ -1174,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -1188,10 +1194,10 @@
         <v>10</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>24</v>
@@ -1202,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
@@ -1216,10 +1222,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>24</v>
@@ -1227,10 +1233,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
@@ -1241,10 +1247,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>15</v>
@@ -1255,10 +1261,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
@@ -1269,10 +1275,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>15</v>
@@ -1342,10 +1348,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
@@ -1356,10 +1362,10 @@
         <v>10</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>27</v>
@@ -1370,10 +1376,10 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
@@ -1384,10 +1390,10 @@
         <v>10</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>27</v>
@@ -1395,10 +1401,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -1409,10 +1415,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>15</v>
@@ -1423,10 +1429,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
@@ -1437,10 +1443,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>15</v>
@@ -1510,10 +1516,10 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
         <v>30</v>
@@ -1524,10 +1530,10 @@
         <v>10</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>30</v>
@@ -1538,10 +1544,10 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
         <v>30</v>
@@ -1552,10 +1558,10 @@
         <v>10</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>30</v>
@@ -1563,10 +1569,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>15</v>
@@ -1577,10 +1583,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>15</v>
@@ -1591,10 +1597,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
@@ -1605,10 +1611,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>15</v>
@@ -1678,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
         <v>33</v>
@@ -1692,10 +1698,10 @@
         <v>10</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>33</v>
@@ -1706,10 +1712,10 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
         <v>33</v>
@@ -1720,10 +1726,10 @@
         <v>10</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>33</v>
@@ -1731,10 +1737,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
@@ -1745,10 +1751,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>15</v>
@@ -1759,10 +1765,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>15</v>
@@ -1773,10 +1779,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>15</v>
@@ -1846,10 +1852,10 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
         <v>36</v>
@@ -1860,10 +1866,10 @@
         <v>10</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>36</v>
@@ -1874,10 +1880,10 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
         <v>36</v>
@@ -1888,10 +1894,10 @@
         <v>10</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>36</v>
@@ -1899,10 +1905,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
@@ -1913,10 +1919,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>15</v>
@@ -1927,10 +1933,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>15</v>
@@ -1941,10 +1947,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>15</v>
@@ -2014,10 +2020,10 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
         <v>39</v>
@@ -2028,10 +2034,10 @@
         <v>10</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>39</v>
@@ -2042,10 +2048,10 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" t="s">
         <v>39</v>
@@ -2056,10 +2062,10 @@
         <v>10</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>39</v>
@@ -2067,10 +2073,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
@@ -2081,10 +2087,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>15</v>
@@ -2095,10 +2101,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
@@ -2109,10 +2115,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>15</v>
@@ -2182,10 +2188,10 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
         <v>42</v>
@@ -2196,10 +2202,10 @@
         <v>10</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>42</v>
@@ -2210,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
         <v>42</v>
@@ -2224,10 +2230,10 @@
         <v>10</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>42</v>
@@ -2235,10 +2241,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
@@ -2249,10 +2255,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>15</v>
@@ -2263,10 +2269,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
@@ -2277,10 +2283,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>15</v>
@@ -2350,10 +2356,10 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128" t="s">
         <v>45</v>
@@ -2364,10 +2370,10 @@
         <v>10</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>45</v>
@@ -2378,10 +2384,10 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" t="s">
         <v>45</v>
@@ -2392,10 +2398,10 @@
         <v>10</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>45</v>
@@ -2403,10 +2409,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
@@ -2417,10 +2423,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>15</v>
@@ -2431,10 +2437,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
@@ -2445,10 +2451,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>15</v>
@@ -2518,10 +2524,10 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D140" t="s">
         <v>48</v>
@@ -2532,10 +2538,10 @@
         <v>10</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>48</v>
@@ -2546,10 +2552,10 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" t="s">
         <v>48</v>
@@ -2560,10 +2566,10 @@
         <v>10</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>48</v>
@@ -2571,10 +2577,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
@@ -2585,10 +2591,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>15</v>
@@ -2599,10 +2605,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
@@ -2613,10 +2619,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>15</v>
@@ -2686,10 +2692,10 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D152" t="s">
         <v>51</v>
@@ -2700,10 +2706,10 @@
         <v>10</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>51</v>
@@ -2714,10 +2720,10 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
         <v>51</v>
@@ -2728,10 +2734,10 @@
         <v>10</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>51</v>
@@ -2739,10 +2745,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>15</v>
@@ -2753,10 +2759,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>15</v>
@@ -2767,10 +2773,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
@@ -2781,10 +2787,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>15</v>
@@ -2854,10 +2860,10 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D164" t="s">
         <v>54</v>
@@ -2868,10 +2874,10 @@
         <v>10</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>54</v>
@@ -2882,10 +2888,10 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D166" t="s">
         <v>54</v>
@@ -2896,10 +2902,10 @@
         <v>10</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>54</v>
@@ -2907,10 +2913,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>15</v>
@@ -2921,10 +2927,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>15</v>
@@ -2935,10 +2941,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>15</v>
@@ -2949,10 +2955,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>15</v>
@@ -3022,10 +3028,10 @@
         <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D176" t="s">
         <v>57</v>
@@ -3036,10 +3042,10 @@
         <v>10</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>57</v>
@@ -3050,10 +3056,10 @@
         <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D178" t="s">
         <v>57</v>
@@ -3064,10 +3070,10 @@
         <v>10</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>57</v>
@@ -3075,10 +3081,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>15</v>
@@ -3089,10 +3095,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>15</v>
@@ -3103,10 +3109,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>15</v>
@@ -3117,16 +3123,128 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
